--- a/downloads/model_eo.xlsx
+++ b/downloads/model_eo.xlsx
@@ -467,11 +467,7 @@
           <t>Автогрейдер 160AWD</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -485,11 +481,7 @@
           <t>Автогрейдер 160M</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -503,11 +495,7 @@
           <t>Автогрейдер 16M</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -521,11 +509,7 @@
           <t>Автогрейдер 18M3</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -539,11 +523,7 @@
           <t>Автогрейдер 24M</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -557,11 +537,7 @@
           <t>Автогрейдер ГС-25</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -575,11 +551,7 @@
           <t>Автогрейдер ДЗ-98</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -593,11 +565,7 @@
           <t>Автогрейдер САТ 140М</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -611,11 +579,7 @@
           <t>Автогрейдер GD825A-2</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -629,11 +593,7 @@
           <t>Автогрейдер TG230A</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -647,11 +607,7 @@
           <t>Бульдозер гусеничный D275A-5D</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -667,7 +623,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Гусеничные бульдозеры в классе мощности 350-450 kW</t>
         </is>
       </c>
     </row>
@@ -685,7 +641,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Гусеничные бульдозеры в классе мощности 350-450 kW</t>
         </is>
       </c>
     </row>
@@ -701,11 +657,7 @@
           <t>Бульдозер гусеничный D65PX</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -719,11 +671,7 @@
           <t>Бульдозер гусеничный D6R</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -737,11 +685,7 @@
           <t>Бульдозер К-702МБА</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -755,11 +699,7 @@
           <t>Бульдозер К-703МА</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -773,11 +713,7 @@
           <t>Бульдозер колесный WD600-6</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -791,11 +727,7 @@
           <t>Бульдозер Т-11</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -809,11 +741,7 @@
           <t>Бульдозер D11R</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -827,11 +755,7 @@
           <t>Бульдозер D155A-5</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -845,11 +769,7 @@
           <t>Бульдозер D375А-6</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -863,11 +783,7 @@
           <t>Бульдозер D375A-5</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -881,11 +797,7 @@
           <t>Бульдозер D475A-5</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -899,11 +811,7 @@
           <t>Бульдозер D63E</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -917,11 +825,7 @@
           <t>Бульдозер D65EX</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -935,11 +839,7 @@
           <t>Бульдозер D6R</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -953,11 +853,7 @@
           <t>Бульдозер D85EХ</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -971,11 +867,7 @@
           <t>Бульдозер D85ESS</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -989,11 +881,7 @@
           <t>Бульдозер D9R</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1007,11 +895,7 @@
           <t>Бульдозер WD600-10</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1025,11 +909,7 @@
           <t>Бульдозер WD600-3</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1043,11 +923,7 @@
           <t>Бульдозер WD600-6</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1061,11 +937,7 @@
           <t>Бульдозер WD600-7</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1079,11 +951,7 @@
           <t>Бульдозер WD600-8</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1097,11 +965,7 @@
           <t>Бульдозер WD600-9</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1115,11 +979,7 @@
           <t>Машина многоцел МКСМ</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1133,11 +993,7 @@
           <t>Погрузчик фронтальный 966H</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1151,11 +1007,7 @@
           <t>Погрузчик фронтальный 980H</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1169,11 +1021,7 @@
           <t>Погрузчик фронтальный 992K</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1187,11 +1035,7 @@
           <t>Погрузчик фронтальный 994H</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1205,11 +1049,7 @@
           <t>Погрузчик фронтальный 994K</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1223,11 +1063,7 @@
           <t>Погрузчик фронтальный HL780-9S</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1241,11 +1077,7 @@
           <t>Погрузчик фронтальный WA200-5</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1259,11 +1091,7 @@
           <t>Погрузчик фронтальный WA430-6</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1277,11 +1105,7 @@
           <t>Погрузчик фронтальный WA470-6</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1295,11 +1119,7 @@
           <t>Погрузчик фронтальный WA500-3</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1313,11 +1133,7 @@
           <t>Погрузчик фронтальный WA500-6</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1331,11 +1147,7 @@
           <t>Погрузчик фронтальный WA600-3</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1349,11 +1161,7 @@
           <t>Погрузчик фронтальный WA600-6</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1367,11 +1175,7 @@
           <t>Погрузчик фронтальный WA800-3</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1385,11 +1189,7 @@
           <t>Погрузчик фронтальный WA900-3</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1403,11 +1203,7 @@
           <t>Погрузчик фронтальный WA900-3HL</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1691,11 +1487,7 @@
           <t>Специальн машина К-703МА</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1727,11 +1519,7 @@
           <t>Станки буровые DE810</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1745,11 +1533,7 @@
           <t>Станки буровые DML LP</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1781,11 +1565,7 @@
           <t>Станки буровые PV-351</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1799,11 +1579,7 @@
           <t>Станки буровые ROC D65</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1817,11 +1593,7 @@
           <t>Станки буровые SmartROC D65</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1835,11 +1607,7 @@
           <t>Станок буровой CM785D</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1853,11 +1621,7 @@
           <t>Станок буровой DM 45LP</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1871,11 +1635,7 @@
           <t>Станок буровой DML HP 1200</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1907,11 +1667,7 @@
           <t>Станок буровой FlexiROC D66</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1925,11 +1681,7 @@
           <t>Станок буровой FlexiROC D67</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1943,11 +1695,7 @@
           <t>Станок буровой FlexiROC D68</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1961,11 +1709,7 @@
           <t>Станок буровой FlexiROC D69</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1979,11 +1723,7 @@
           <t>Станок буровой FlexiROC D70</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1997,11 +1737,7 @@
           <t>Станок буровой FlexiROC D71</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2015,11 +1751,7 @@
           <t>Станок буровой FlexiROC D72</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2051,11 +1783,7 @@
           <t>Установка буровая БКМ-534</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2069,11 +1797,7 @@
           <t>Установка буровая БМ-83</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2087,11 +1811,7 @@
           <t>Установка буровая УРБ-2А2</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2105,11 +1825,7 @@
           <t>Установка буровая CS10</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2123,11 +1839,7 @@
           <t>Установка буровая CS1000</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2141,11 +1853,7 @@
           <t>Установка буровая CS14</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2159,11 +1867,7 @@
           <t>Установка буровая PS1000</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2681,11 +2385,7 @@
           <t>Бульдозер D-85ESS-2A</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -2699,11 +2399,7 @@
           <t>Бульдозер САТ-834</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -2717,11 +2413,7 @@
           <t>Станок буровой БС Барс</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -2735,11 +2427,7 @@
           <t>Станок буровой DML LP Epiroc</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -2807,11 +2495,7 @@
           <t>Бульдозер D375A-5D</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -2825,11 +2509,7 @@
           <t>Станок буровой DML HP 1450</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">

--- a/downloads/model_eo.xlsx
+++ b/downloads/model_eo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D134"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,11 @@
           <t>Автогрейдер 160AWD</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Автогрейдеры</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -481,7 +485,11 @@
           <t>Автогрейдер 160M</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Автогрейдеры</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -495,7 +503,11 @@
           <t>Автогрейдер 16M</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Автогрейдеры</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -509,7 +521,11 @@
           <t>Автогрейдер 18M3</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Автогрейдеры</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -523,7 +539,11 @@
           <t>Автогрейдер 24M</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Автогрейдеры</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -537,7 +557,11 @@
           <t>Автогрейдер ГС-25</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Автогрейдеры</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -551,7 +575,11 @@
           <t>Автогрейдер ДЗ-98</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Автогрейдеры</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -565,7 +593,11 @@
           <t>Автогрейдер САТ 140М</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Автогрейдеры</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -579,7 +611,11 @@
           <t>Автогрейдер GD825A-2</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Автогрейдеры</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -593,7 +629,11 @@
           <t>Автогрейдер TG230A</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Автогрейдеры</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -607,7 +647,11 @@
           <t>Бульдозер гусеничный D275A-5D</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Бульдозеры гусеничные</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -623,7 +667,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Гусеничные бульдозеры в классе мощности 350-450 kW</t>
+          <t>Бульдозеры гусеничные</t>
         </is>
       </c>
     </row>
@@ -641,7 +685,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Гусеничные бульдозеры в классе мощности 350-450 kW</t>
+          <t>Бульдозеры гусеничные</t>
         </is>
       </c>
     </row>
@@ -657,7 +701,11 @@
           <t>Бульдозер гусеничный D65PX</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Бульдозеры гусеничные</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -671,7 +719,11 @@
           <t>Бульдозер гусеничный D6R</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Бульдозеры гусеничные</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -685,7 +737,11 @@
           <t>Бульдозер К-702МБА</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Бульдозеры колесные</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -699,7 +755,11 @@
           <t>Бульдозер К-703МА</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Бульдозеры колесные</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -713,7 +773,11 @@
           <t>Бульдозер колесный WD600-6</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Бульдозеры колесные</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -727,7 +791,11 @@
           <t>Бульдозер Т-11</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Бульдозеры гусеничные</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -741,7 +809,11 @@
           <t>Бульдозер D11R</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Бульдозеры гусеничные</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -755,7 +827,11 @@
           <t>Бульдозер D155A-5</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Бульдозеры гусеничные</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -769,7 +845,11 @@
           <t>Бульдозер D375А-6</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Бульдозеры гусеничные</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -783,7 +863,11 @@
           <t>Бульдозер D375A-5</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Бульдозеры гусеничные</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -797,7 +881,11 @@
           <t>Бульдозер D475A-5</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Бульдозеры гусеничные</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -811,7 +899,11 @@
           <t>Бульдозер D63E</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Бульдозеры гусеничные</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -825,7 +917,11 @@
           <t>Бульдозер D65EX</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Бульдозеры гусеничные</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -839,7 +935,11 @@
           <t>Бульдозер D6R</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Бульдозеры гусеничные</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -853,7 +953,11 @@
           <t>Бульдозер D85EХ</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Бульдозеры гусеничные</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -867,7 +971,11 @@
           <t>Бульдозер D85ESS</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Бульдозеры гусеничные</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -881,670 +989,778 @@
           <t>Бульдозер D9R</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Бульдозеры гусеничные</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Бульдозер WD600-10</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>Бульдозер WD600-3</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Бульдозеры колесные</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B33" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Бульдозер WD600-3</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>Машина многоцел МКСМ</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Погрузчики фронтальные</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B34" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Бульдозер WD600-6</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>Погрузчик фронтальный 966H</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Погрузчики фронтальные</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B35" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Бульдозер WD600-7</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>Погрузчик фронтальный 980H</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Погрузчики фронтальные</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B36" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Бульдозер WD600-8</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>Погрузчик фронтальный 992K</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Погрузчики фронтальные</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B37" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Бульдозер WD600-9</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>Погрузчик фронтальный 994H</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Погрузчики фронтальные</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B38" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Машина многоцел МКСМ</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>Погрузчик фронтальный 994K</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Погрузчики фронтальные</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B39" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Погрузчик фронтальный 966H</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>Погрузчик фронтальный HL780-9S</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Погрузчики фронтальные</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B40" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Погрузчик фронтальный 980H</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>Погрузчик фронтальный WA200-5</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Погрузчики фронтальные</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B41" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Погрузчик фронтальный 992K</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>Погрузчик фронтальный WA430-6</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Погрузчики фронтальные</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B42" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Погрузчик фронтальный 994H</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>Погрузчик фронтальный WA470-6</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Погрузчики фронтальные</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B43" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Погрузчик фронтальный 994K</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>Погрузчик фронтальный WA500-3</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Погрузчики фронтальные</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B44" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Погрузчик фронтальный HL780-9S</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>Погрузчик фронтальный WA500-6</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Погрузчики фронтальные</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B45" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Погрузчик фронтальный WA200-5</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>Погрузчик фронтальный WA600-3</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Погрузчики фронтальные</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B46" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Погрузчик фронтальный WA430-6</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+          <t>Погрузчик фронтальный WA600-6</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Погрузчики фронтальные</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B47" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Погрузчик фронтальный WA470-6</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>Погрузчик фронтальный WA800-3</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Погрузчики фронтальные</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B48" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Погрузчик фронтальный WA500-3</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>Погрузчик фронтальный WA900-3</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Погрузчики фронтальные</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B49" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Погрузчик фронтальный WA500-6</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>Погрузчик фронтальный WA900-3HL</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Погрузчики фронтальные</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B50" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Погрузчик фронтальный WA600-3</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>Самосвалы БелАЗ-75182</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Автосамосвалы в классе 180-190 тонн</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B51" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Погрузчик фронтальный WA600-6</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>Самосвалы БелАЗ-7540</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Автосамосвалы в классе 30-40тонн</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B52" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Погрузчик фронтальный WA800-3</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>Самосвалы БелАЗ-7547</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Автосамосвалы в классе 40-85тонн</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B53" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Погрузчик фронтальный WA900-3</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>Самосвалы CAT 777E</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Автосамосвалы в классе 85-110тонн</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B54" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Погрузчик фронтальный WA900-3HL</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>Самосвалы CAT 777F</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Автосамосвалы в классе 85-110тонн</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B55" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Самосвалы БелАЗ-75182</t>
+          <t>Самосвалы CAT 785C</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Автосамосвалы в классе 180-190 тонн</t>
+          <t>Автосамосвалы в классе 120-150 тонн</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B56" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Самосвалы БелАЗ-7540</t>
+          <t>Самосвалы CAT 789D</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Автосамосвалы в классе 30-40тонн</t>
+          <t>Автосамосвалы в классе 180-190 тонн</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B57" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Самосвалы БелАЗ-7547</t>
+          <t>Самосвалы CAT 793D</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Автосамосвалы в классе 40-85тонн</t>
+          <t>Автосамосвалы в классе 218-250 тонн</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B58" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Самосвалы CAT 777E</t>
+          <t>Самосвалы Komatsu 730E-10</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Автосамосвалы в классе 85-110тонн</t>
+          <t>Автосамосвалы в классе 180-190 тонн</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B59" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Самосвалы CAT 777F</t>
+          <t>Самосвалы Komatsu 730E-8</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Автосамосвалы в классе 85-110тонн</t>
+          <t>Автосамосвалы в классе 180-190 тонн</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B60" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Самосвалы CAT 785C</t>
+          <t>Самосвалы Komatsu 830E-1AC</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Автосамосвалы в классе 120-150 тонн</t>
+          <t>Автосамосвалы в классе 218-250 тонн</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B61" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Самосвалы CAT 789D</t>
+          <t>Самосвалы Komatsu HD1500-7</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Автосамосвалы в классе 180-190 тонн</t>
+          <t>Автосамосвалы в классе 120-150 тонн</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B62" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Самосвалы CAT 793D</t>
+          <t>Самосвалы Komatsu HD1500-8</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Автосамосвалы в классе 218-250 тонн</t>
+          <t>Автосамосвалы в классе 120-150 тонн</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B63" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Самосвалы Komatsu 730E-10</t>
+          <t>Самосвалы Komatsu HD785-5</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Автосамосвалы в классе 180-190 тонн</t>
+          <t>Автосамосвалы в классе 85-110тонн</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B64" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Самосвалы Komatsu 730E-8</t>
+          <t>Самосвалы Komatsu HD785-7</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Автосамосвалы в классе 180-190 тонн</t>
+          <t>Автосамосвалы в классе 85-110тонн</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B65" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Самосвалы Komatsu 830E-1AC</t>
+          <t>Специальн машина К-703МА</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Автосамосвалы в классе 218-250 тонн</t>
+          <t>Бульдозеры колесные</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B66" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Самосвалы Komatsu HD1500-7</t>
+          <t>Станки буровые СБШ-250</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Автосамосвалы в классе 120-150 тонн</t>
+          <t>Буровые станки станки тяжелого класса</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B67" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Самосвалы Komatsu HD1500-8</t>
+          <t>Станки буровые DE810</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Автосамосвалы в классе 120-150 тонн</t>
+          <t>Буровые станки среднего класса</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B68" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Самосвалы Komatsu HD785-5</t>
+          <t>Станки буровые DML LP</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Автосамосвалы в классе 85-110тонн</t>
+          <t>Буровые станки среднего класса</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B69" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Самосвалы Komatsu HD785-7</t>
+          <t>Станки буровые PV-235</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Автосамосвалы в классе 85-110тонн</t>
+          <t>Буровые станки среднего класса</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B70" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Специальн машина К-703МА</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+          <t>Станки буровые PV-351</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Буровые станки среднего класса</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B71" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Станки буровые СБШ-250</t>
+          <t>Станки буровые ROC D65</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Буровые станки станки тяжелого класса</t>
+          <t>Буровые станки среднего класса</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B72" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Станки буровые DE810</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
+          <t>Станки буровые SmartROC D65</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Буровые станки среднего класса</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B73" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Станки буровые DML LP</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+          <t>Станок буровой CM785D</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Буровые станки среднего класса</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B74" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Станки буровые PV-235</t>
+          <t>Станок буровой DM 45LP</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -1555,348 +1771,428 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B75" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Станки буровые PV-351</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
+          <t>Станок буровой DML HP 1200</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Буровые станки среднего класса</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B76" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Станки буровые ROC D65</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+          <t>Станок буровой FlexiROC D65</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Буровые станки тяжелого класса</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B77" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Станки буровые SmartROC D65</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
+          <t>Станок буровой FlexiROC D66</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Буровые станки тяжелого класса</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B78" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Станок буровой CM785D</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
+          <t>Станок буровой FlexiROC D67</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Буровые станки тяжелого класса</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B79" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Станок буровой DM 45LP</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+          <t>Станок буровой FlexiROC D68</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Буровые станки тяжелого класса</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B80" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Станок буровой DML HP 1200</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
+          <t>Станок буровой FlexiROC D69</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Буровые станки тяжелого класса</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B81" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Станок буровой FlexiROC D65</t>
+          <t>Станок буровой FlexiROC D70</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Буровые станки станки тяжелого класса</t>
+          <t>Буровые станки тяжелого класса</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B82" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Станок буровой FlexiROC D66</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
+          <t>Станок буровой FlexiROC D71</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Буровые станки тяжелого класса</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B83" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Станок буровой FlexiROC D67</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
+          <t>Станок буровой FlexiROC D72</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Буровые станки тяжелого класса</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B84" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Станок буровой FlexiROC D68</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
+          <t>Станок буровой PV-271</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Буровые станки тяжелого класса</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B85" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Станок буровой FlexiROC D69</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
+          <t>Установка буровая БКМ-534</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Буровые станки тяжелого класса</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B86" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Станок буровой FlexiROC D70</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
+          <t>Установка буровая БМ-83</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Буровые станки тяжелого класса</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B87" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Станок буровой FlexiROC D71</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
+          <t>Установка буровая УРБ-2А2</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Буровые станки тяжелого класса</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B88" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Станок буровой FlexiROC D72</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
+          <t>Установка буровая CS10</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Буровые станки тяжелого класса</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B89" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Станок буровой PV-271</t>
+          <t>Установка буровая CS1000</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Буровые станки станки тяжелого класса</t>
+          <t>Буровые станки тяжелого класса</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B90" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Установка буровая БКМ-534</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
+          <t>Установка буровая CS14</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Буровые станки тяжелого класса</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B91" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Установка буровая БМ-83</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
+          <t>Установка буровая PS1000</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Буровые станки тяжелого класса</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B92" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Установка буровая УРБ-2А2</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
+          <t>Экскаватор гидравл. ЕК 270LC</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Гидравлические экскаваторы с объемом ковша 1-5 м3</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B93" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Установка буровая CS10</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+          <t>Экскаватор гидравл. ЕК 450FS</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Гидравлические экскаваторы с объемом ковша 1-5 м3</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B94" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Установка буровая CS1000</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
+          <t>Экскаватор гидравл. Liebherr R950</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Гидравлические экскаваторы с объемом ковша 1-5 м3</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B95" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Установка буровая CS14</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
+          <t>Экскаватор гидравл. Liebherr R974</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Гидравлические экскаваторы с объемом ковша 1-5 м3</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B96" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Установка буровая PS1000</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
+          <t>Экскаватор гидравл. PC1250SP-8</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Гидравлические экскаваторы с объемом ковша 6-7 м3</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B97" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Экскаватор гидравл. ЕК 270LC</t>
+          <t>Экскаватор гидравл. PC2000-8</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Гидравлические экскаваторы с объемом ковша 1-5 м3</t>
+          <t>Гидравлические экскаваторы с объемом ковша 11-12 м3</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B98" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Экскаватор гидравл. ЕК 450FS</t>
+          <t>Экскаватор гидравл. PC220-8</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -1907,14 +2203,14 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B99" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Экскаватор гидравл. Liebherr R950</t>
+          <t>Экскаватор гидравл. PC400-7</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -1925,68 +2221,68 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B100" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Экскаватор гидравл. Liebherr R974</t>
+          <t>Экскаватор гидравл. PC4000-6</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Гидравлические экскаваторы с объемом ковша 1-5 м3</t>
+          <t>Гидравлические экскаваторы с объемом ковша 20-22м3</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B101" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Экскаватор гидравл. PC1250SP-8</t>
+          <t>Экскаватор гидравл. PC400LC-7</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Гидравлические экскаваторы с объемом ковша 6-7 м3</t>
+          <t>Гидравлические экскаваторы с объемом ковша 1-5 м3</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B102" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Экскаватор гидравл. PC2000-8</t>
+          <t>Экскаватор гидравл. PC750-7</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Гидравлические экскаваторы с объемом ковша 11-12 м3</t>
+          <t>Гидравлические экскаваторы с объемом ковша 1-5 м3</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B103" t="n">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Экскаватор гидравл. PC220-8</t>
+          <t>Экскаватор гидравл. WX 200</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -1997,194 +2293,194 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B104" t="n">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Экскаватор гидравл. PC400-7</t>
+          <t>Экскаватор PC1250-8</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Гидравлические экскаваторы с объемом ковша 1-5 м3</t>
+          <t>Гидравлические экскаваторы с объемом ковша 6-7 м3</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B105" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Экскаватор гидравл. PC4000-6</t>
+          <t>Экскаватор PC400-7</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Гидравлические экскаваторы с объемом ковша 20-22м3</t>
+          <t>Гидравлические экскаваторы с объемом ковша 1-5 м3</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B106" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Экскаватор гидравл. PC400LC-7</t>
+          <t>Экскаватор-погрузчик TLB 825</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Гидравлические экскаваторы с объемом ковша 1-5 м3</t>
+          <t>Гидравлические экскаваторы с объемом ковша менее 1 м3</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B107" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Экскаватор гидравл. PC750-7</t>
+          <t>Экскаваторы ЭКГ-10</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Гидравлические экскаваторы с объемом ковша 1-5 м3</t>
+          <t>Канатные экскаваторы с объемом ковша 5-35 м3</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B108" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Экскаватор гидравл. WX 200</t>
+          <t>Экскаваторы ЭКГ-18</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Гидравлические экскаваторы с объемом ковша 1-5 м3</t>
+          <t>Канатные экскаваторы с объемом ковша 18-35 м3</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B109" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Экскаватор PC1250-8</t>
+          <t>Экскаваторы ЭКГ-20</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Гидравлические экскаваторы с объемом ковша 6-7 м3</t>
+          <t>Канатные экскаваторы с объемом ковша 18-35 м3</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B110" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Экскаватор PC400-7</t>
+          <t>Экскаваторы ЭКГ-5А</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Гидравлические экскаваторы с объемом ковша 1-5 м3</t>
+          <t>Канатные экскаваторы с объемом ковша 5-35 м3</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B111" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Экскаватор-погрузчик TLB 825</t>
+          <t>Экскаваторы PC1250-7</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Гидравлические экскаваторы с объемом ковша менее 1 м3</t>
+          <t>Гидравлические экскаваторы с объемом ковша 6-7 м3</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B112" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Экскаваторы ЭКГ-10</t>
+          <t>Экскаваторы PC1250-8</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Канатные экскаваторы с объемом ковша 5-35 м3</t>
+          <t>Гидравлические экскаваторы с объемом ковша 6-7 м3</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B113" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Экскаваторы ЭКГ-18</t>
+          <t>Экскаваторы PC3000-6</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Канатные экскаваторы с объемом ковша 18-35 м3</t>
+          <t>Гидравлические экскаваторы с объемом ковша 15-17 м3</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B114" t="n">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Экскаваторы ЭКГ-20</t>
+          <t>Экскаваторы PH 2300XPC</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2195,337 +2491,289 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B115" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Экскаваторы ЭКГ-5А</t>
+          <t>Экскаваторы WK-20</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Канатные экскаваторы с объемом ковша 5-35 м3</t>
+          <t>Канатные экскаваторы с объемом ковша 18-35 м3</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B116" t="n">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Экскаваторы PC1250-7</t>
+          <t>Экскаваторы WK-35</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Гидравлические экскаваторы с объемом ковша 6-7 м3</t>
+          <t>Канатные экскаваторы с объемом ковша 18-35 м3</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B117" t="n">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Экскаваторы PC1250-8</t>
+          <t>Самосвалы CAT 777G</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Гидравлические экскаваторы с объемом ковша 6-7 м3</t>
+          <t>Автосамосвалы в классе 85-110тонн</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B118" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Экскаваторы PC3000-6</t>
+          <t>Самосвалы Komatsu HD 465-7R</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Гидравлические экскаваторы с объемом ковша 15-17 м3</t>
+          <t>Автосамосвалы в классе 40-85тонн</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B119" t="n">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Экскаваторы PH 2300XPC</t>
+          <t>Самосвалы Белаз 7555 В</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Канатные экскаваторы с объемом ковша 18-35 м3</t>
+          <t>Автосамосвалы в классе 40-85тонн</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B120" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Экскаваторы WK-20</t>
+          <t>Бульдозер D-85ESS-2A</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Канатные экскаваторы с объемом ковша 18-35 м3</t>
+          <t>Бульдозеры гусеничные</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B121" t="n">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Экскаваторы WK-35</t>
+          <t>Бульдозер САТ-834</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Канатные экскаваторы с объемом ковша 18-35 м3</t>
+          <t>Бульдозеры колесные</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B122" t="n">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Самосвалы CAT 777G</t>
+          <t>Станок буровой БС Барс</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Автосамосвалы в классе 85-110тонн</t>
+          <t>Буровые станки станки тяжелого класса</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B123" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Самосвалы Komatsu HD 465-7R</t>
+          <t>Станок буровой DML LP Epiroc</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Автосамосвалы в классе 40-85тонн</t>
+          <t>Буровые станки станки тяжелого класса</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B124" t="n">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Самосвалы Белаз 7555 В</t>
+          <t>Экскаватор PC3000-6 обрат.лопата</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Автосамосвалы в классе 40-85тонн</t>
+          <t>Гидравлические экскаваторы с объемом ковша 15-17 м3</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B125" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Бульдозер D-85ESS-2A</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr"/>
+          <t>Экскаватор PC5500-6</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Гидравлические экскаваторы с объемом ковша 26-30м3</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B126" t="n">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Бульдозер САТ-834</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
+          <t>Экскаватор 4100C AC P&amp;H</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Канатные экскаваторы с объемом ковша 40-60 м3</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B127" t="n">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Станок буровой БС Барс</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
+          <t>Бульдозер D375A-5D</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Бульдозеры гусеничные</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B128" t="n">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Станок буровой DML LP Epiroc</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
+          <t>Станок буровой DML HP 1450</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Буровые станки станки тяжелого класса</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B129" t="n">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Экскаватор PC3000-6 обрат.лопата</t>
+          <t>Экскаватор гидравл CAT395</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Гидравлические экскаваторы с объемом ковша 15-17 м3</t>
+          <t>Гидравлические экскаваторы с объемом ковша 1-5 м3</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B130" t="n">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Экскаватор PC5500-6</t>
+          <t xml:space="preserve">Станок буровой MD6250 </t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Гидравлические экскаваторы с объемом ковша 26-30м3</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>130</v>
-      </c>
-      <c r="B131" t="n">
-        <v>136</v>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Экскаватор 4100C AC P&amp;H</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Канатные экскаваторы с объемом ковша 40-60 м3</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>131</v>
-      </c>
-      <c r="B132" t="n">
-        <v>137</v>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Бульдозер D375A-5D</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>132</v>
-      </c>
-      <c r="B133" t="n">
-        <v>138</v>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Станок буровой DML HP 1450</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>137</v>
-      </c>
-      <c r="B134" t="n">
-        <v>143</v>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Экскаватор гидравл CAT395</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Гидравлические экскаваторы с объемом ковша 1-5 м3</t>
+          <t>Буровые станки тяжелого класса</t>
         </is>
       </c>
     </row>

--- a/downloads/model_eo.xlsx
+++ b/downloads/model_eo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Буровые станки станки тяжелого класса</t>
+          <t>Буровые станки</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Буровые станки среднего класса</t>
+          <t>Буровые станки</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Буровые станки среднего класса</t>
+          <t>Буровые станки</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Буровые станки среднего класса</t>
+          <t>Буровые станки</t>
         </is>
       </c>
     </row>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Буровые станки среднего класса</t>
+          <t>Буровые станки</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Буровые станки среднего класса</t>
+          <t>Буровые станки</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Буровые станки среднего класса</t>
+          <t>Буровые станки</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Буровые станки среднего класса</t>
+          <t>Буровые станки</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Буровые станки среднего класса</t>
+          <t>Буровые станки</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Буровые станки среднего класса</t>
+          <t>Буровые станки</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Буровые станки тяжелого класса</t>
+          <t>Буровые станки</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Буровые станки тяжелого класса</t>
+          <t>Буровые станки</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Буровые станки тяжелого класса</t>
+          <t>Буровые станки</t>
         </is>
       </c>
     </row>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Буровые станки тяжелого класса</t>
+          <t>Буровые станки</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Буровые станки тяжелого класса</t>
+          <t>Буровые станки</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Буровые станки тяжелого класса</t>
+          <t>Буровые станки</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Буровые станки тяжелого класса</t>
+          <t>Буровые станки</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Буровые станки тяжелого класса</t>
+          <t>Буровые станки</t>
         </is>
       </c>
     </row>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Буровые станки тяжелого класса</t>
+          <t>Буровые станки</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Буровые станки тяжелого класса</t>
+          <t>Буровые станки</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Буровые станки тяжелого класса</t>
+          <t>Буровые станки</t>
         </is>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Буровые станки тяжелого класса</t>
+          <t>Буровые станки</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Буровые станки тяжелого класса</t>
+          <t>Буровые станки</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Буровые станки тяжелого класса</t>
+          <t>Буровые станки</t>
         </is>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Буровые станки тяжелого класса</t>
+          <t>Буровые станки</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Буровые станки тяжелого класса</t>
+          <t>Буровые станки</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Буровые станки станки тяжелого класса</t>
+          <t>Буровые станки</t>
         </is>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Буровые станки станки тяжелого класса</t>
+          <t>Буровые станки</t>
         </is>
       </c>
     </row>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Буровые станки станки тяжелого класса</t>
+          <t>Буровые станки</t>
         </is>
       </c>
     </row>
@@ -2773,7 +2773,25 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Буровые станки тяжелого класса</t>
+          <t>Буровые станки</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>139</v>
+      </c>
+      <c r="B131" t="n">
+        <v>145</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Самосвалы NTE240</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Автосамосвалы в классе 218-250 тонн</t>
         </is>
       </c>
     </row>
